--- a/results/virality_summary_report.xlsx
+++ b/results/virality_summary_report.xlsx
@@ -676,7 +676,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Просмотры: 37,719.0, Пересылки: 3.0, Комментарии: 0.0, ER%: 0.23%, Баланс: 84.0, Тип: Текст</t>
+          <t>Просмотры: 37,721.0, Пересылки: 3.0, Комментарии: 0.0, ER%: 0.23%, Баланс: 84.0, Тип: Текст</t>
         </is>
       </c>
     </row>

--- a/results/virality_summary_report.xlsx
+++ b/results/virality_summary_report.xlsx
@@ -436,14 +436,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="33" customWidth="1" min="1" max="1"/>
-    <col width="27" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Канал: sellerx</t>
+          <t>Канал: alina_telling</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>33.62</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23.13</t>
+          <t>207.66</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.12%</t>
+          <t>1.75%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1,521.0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22.6</t>
+          <t>92.5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>679.0</t>
+          <t>15,361.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -632,51 +632,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1. 14.05.2025 09:09</t>
+          <t>1. 17.03.2025 09:23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Виральность: 23.13</t>
+          <t>Виральность: 207.66</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Просмотры: 1,050.0, Пересылки: 2.0, Комментарии: 0.0, ER%: 5.62%, Баланс: 57.0, Тип: Текст</t>
+          <t>Просмотры: 7,046.0, Пересылки: 5.0, Комментарии: 4.0, ER%: 10.28%, Баланс: 715.0, Тип: Текст</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2. 15.05.2025 10:05</t>
+          <t>2. 06.02.2025 16:14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Виральность: 22.03</t>
+          <t>Виральность: 203.65</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Просмотры: 1,813.0, Пересылки: 0.0, Комментарии: 0.0, ER%: 3.53%, Баланс: 64.0, Тип: Текст</t>
+          <t>Просмотры: 6,830.0, Пересылки: 0.0, Комментарии: 10.0, ER%: 10.41%, Баланс: 701.0, Тип: Текст</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3. 22.06.2025 13:00</t>
+          <t>3. 20.07.2025 13:57</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Виральность: 21.38</t>
+          <t>Виральность: 190.52</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Просмотры: 37,721.0, Пересылки: 3.0, Комментарии: 0.0, ER%: 0.23%, Баланс: 84.0, Тип: Текст</t>
+          <t>Просмотры: 5,074.0, Пересылки: 253.0, Комментарии: 13.0, ER%: 7.69%, Баланс: 124.0, Тип: Текст</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Средняя виральность: 7.59</t>
+          <t>Средняя виральность: 33.62</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Средние показатели - Просмотры: 7440, Пересылки: 0.9, Реакции: 22.6, Комментарии: 0.0</t>
+          <t>Средние показатели - Просмотры: 5736, Пересылки: 6.5, Реакции: 92.5, Комментарии: 9.2</t>
         </is>
       </c>
     </row>
